--- a/docs/广东诚信用例.xlsx
+++ b/docs/广东诚信用例.xlsx
@@ -1510,7 +1510,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
